--- a/assets/cursos/EP/LOQ4243.xlsx
+++ b/assets/cursos/EP/LOQ4243.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2018</t>
+    <t>01/01/2021</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -70,13 +70,13 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Este curso visa apresentar os principais conceitos de circuitos eletrônicos e elétricos principalmente para alunos de graduação em engenharia de produção.</t>
+    <t>Este curso visa apresentar os principais conceitos relacionados ao uso da eletrônica, com foco na identificação de componentes e funcionalidades, para o uso em projetos relacionados ao curso de graduação em engenharia de produção.</t>
   </si>
   <si>
     <t>Objectives:</t>
   </si>
   <si>
-    <t>This course aims to introduce the main concepts of electronic and electrical circuits mainly for undergraduates in production engineering.</t>
+    <t>This course aims to present the main concepts related to the use of electronics, focusing on the identification of components and functionalities, for use in projects related to the undergraduate course in production engineering</t>
   </si>
   <si>
     <t>Docentes responsáveis:</t>
@@ -88,25 +88,25 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Eletrônica digital e analógica; Sensores e atuadores; Amplificadores; Microcontroladores; Sistemas mecatrônicos</t>
+    <t>Fundamentos da Eletrônica; Sensores e atuadores; Microcontroladores;Sistemas mecatrônicos;Experimentos práticos.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
   </si>
   <si>
-    <t>Analog and digital electronics; Sensors and actuators; Amplifiers; Microcontrollers; Mechatronic systems</t>
+    <t>Fundamentals of Electronics; Sensors and actuators; Microcontrollers; Mechatronic systems; Practical experiments.</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>Eletrônica digital e analógica: fundamentos, circuitos aplicados; Sensores e atuadores: tipos, aplicações; Amplificadores: transistor, amplificadores operacionais, aplicações lineares e não lineares; Microcontroladores: tipos, fundamentos de programação, sistemas embarcados, circuitos aplicados, PIC, Arduino; Sistemas mecatrônicos aplicados a produção.</t>
+    <t>Fundamentos da Eletrônica: digital e analógica; Uso de sensores e atuadores em processos produtivos; Programação básica de microcontroladores, com foco em Arduino ou similar;Projetos de uso em sistemas mecatrônicos aplicados a engenharia de produção;Experimentos práticos.</t>
   </si>
   <si>
     <t>Syllabus:</t>
   </si>
   <si>
-    <t>Digital and analog electronics: Fundamentals, circuits applied; Sensors and actuators: types, applications; Amplifiers: transistors, operational amplifiers, linear and non-linear applications; Microcontrollers: types, basic programming, embedded systems, applied circuits, PIC, Arduino; Mechatronic systems applied to production.</t>
+    <t>Fundamentals of Electronics: digital and analog; Use of sensors and actuators in production processes; Basic programming of microcontrollers, focusing on Arduino or similar; Projects for use in mechatronic systems applied to production engineering; Practical experiments</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -115,25 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>Aulas expositivas e práticas.</t>
+    <t>Esta disciplina deverá conter no mínimo duas avaliações denominadas A1 e A2. As avalições poderão ser: escritas, práticas, seminários, trabalhos de campo, projetos, ou outra forma de avaliação definida pelo professor.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Exercícios de aprendizado e exercícios de avaliação farão parte da composição de notas individuais (NI), com aplicação de trabalhos práticos em grupo (NG). Sendo: Nota Final = (NI+NG)/2</t>
+    <t>Média ponderada das avaliações (M).</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A recuperação deverá consistir de uma prova englobando a matéria toda do semestre. - A média final (pós-recuperação) deverá ser composta por uma média simples entre a nota do semestre (nota final) e a da prova de recuperação.</t>
+    <t>A recuperação será composta por uma única prova (RC) englobando toda a matéria ministrada ao longo do semestre. A média final, para os alunos em recuperação, será calculada com base na relação: MF=(M+RC)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Tutoriais de Arduino disponibilizados pelo fabricante (arduino.cc)BOYLESTAD, Robert L.; NASHELSKY, Louis. Dispositivos Eletrônicos e Teoria de Circuitos. 8ª ed. São Paulo: Pearson. 696 p.THOMAZINI, Daniel; ALBUQUERQUE, Pedro U.B. Sensores Industriais – Fundamentos e Aplicações. 8ª ed. São Paulo: Érica, 2011. 224 p.</t>
+    <t>Tutoriais de Arduino disponibilizados pelo fabricante (arduino.cc) BOYLESTAD, Robert L.; NASHELSKY, Louis. Dispositivos Eletrônicos e Teoria de Circuitos. 8ª ed. São Paulo: Pearson. 696 p. THOMAZINI, Daniel; ALBUQUERQUE, Pedro U.B. Sensores Industriais – Fundamentos e Aplicações. 8ª ed. São Paulo: Érica, 2011. 224 p.Bibliografia complementar será indicada ao longo do curso.</t>
   </si>
   <si>
     <t>Requisitos:</t>
